--- a/output/image1/synapseData.xlsx
+++ b/output/image1/synapseData.xlsx
@@ -8576,7 +8576,7 @@
         <v>751</v>
       </c>
       <c r="C388" t="n">
-        <v>24.40587976533895</v>
+        <v>24.40587976533894</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
